--- a/test_cases/PE-16/TC-01-Mail.xlsx
+++ b/test_cases/PE-16/TC-01-Mail.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramiro\Desktop\casos de prueba\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramiro\Documents\GitHub\TestingAplicaciones-Alvinylasardillas-TPO\test_cases\PE-16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F9B7B8-49BD-4EB3-A5F2-BAFEED5C2AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB5EFBB-E87A-4E76-B97C-BE2F4034544C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4878CB20-F5DA-4D89-879F-D1C366F35C19}"/>
   </bookViews>
@@ -520,12 +520,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -539,6 +533,12 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -560,11 +560,11 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -883,7 +883,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="B13" sqref="B13:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -901,7 +901,7 @@
       <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="21">
@@ -978,7 +978,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1019,92 +1019,92 @@
       <c r="A15" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="26"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="26"/>
+      <c r="E17" s="24"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="24">
+      <c r="A18" s="22">
         <v>1</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="25" t="s">
+      <c r="C18" s="24"/>
+      <c r="D18" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="26"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="24">
+      <c r="A19" s="22">
         <v>2</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="25" t="s">
+      <c r="C19" s="24"/>
+      <c r="D19" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="25"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="22">
+        <v>3</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="26"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="24">
-        <v>3</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="39"/>
+      <c r="E20" s="24"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="24"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D1:E1"/>
@@ -1112,14 +1112,15 @@
     <mergeCell ref="B13:E14"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
   </mergeCells>
